--- a/Test Cases Final/TC- 1 Exit.xlsx
+++ b/Test Cases Final/TC- 1 Exit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cror\Desktop\Test Cases\Test Cases Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DE8130-1982-423D-A1F8-D839C0629B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C691D68-DDAA-4D09-ACB8-9A51961484D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>Invalid input message is displayed</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>space char</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>test, 54tga</t>
   </si>
 </sst>
 </file>
@@ -772,7 +772,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,14 +879,14 @@
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -939,22 +939,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>25</v>
@@ -963,22 +963,22 @@
     </row>
     <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>25</v>
@@ -987,16 +987,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>27</v>
@@ -1011,13 +1011,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>28</v>
@@ -1035,16 +1035,16 @@
     </row>
     <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>27</v>
@@ -1059,16 +1059,16 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>27</v>
@@ -1083,16 +1083,16 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>27</v>
@@ -1107,16 +1107,16 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>27</v>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>27</v>
@@ -1155,16 +1155,16 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>27</v>
